--- a/output/Amg46male/de_logfc1_annotation.xlsx
+++ b/output/Amg46male/de_logfc1_annotation.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="18780" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>G46 XY males vs XX males</t>
   </si>
@@ -67,16 +68,60 @@
   </si>
   <si>
     <t>XX bias</t>
+  </si>
+  <si>
+    <t>orthologs</t>
+  </si>
+  <si>
+    <t>R. temporaria</t>
+  </si>
+  <si>
+    <t>X. tropicalis</t>
+  </si>
+  <si>
+    <t>perc</t>
+  </si>
+  <si>
+    <t>Chisq test</t>
+  </si>
+  <si>
+    <t>p=0.189</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +144,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -550,6 +604,192 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>1555</v>
+      </c>
+      <c r="C2">
+        <v>1368</v>
+      </c>
+      <c r="D2">
+        <v>1216</v>
+      </c>
+      <c r="E2">
+        <v>1217</v>
+      </c>
+      <c r="F2">
+        <v>1029</v>
+      </c>
+      <c r="G2">
+        <v>839</v>
+      </c>
+      <c r="H2">
+        <v>838</v>
+      </c>
+      <c r="I2">
+        <v>1034</v>
+      </c>
+      <c r="J2">
+        <v>632</v>
+      </c>
+      <c r="K2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>3196</v>
+      </c>
+      <c r="C3">
+        <v>2646</v>
+      </c>
+      <c r="D3">
+        <v>2639</v>
+      </c>
+      <c r="E3">
+        <v>2325</v>
+      </c>
+      <c r="F3">
+        <v>2074</v>
+      </c>
+      <c r="G3">
+        <v>1645</v>
+      </c>
+      <c r="H3">
+        <v>1940</v>
+      </c>
+      <c r="I3">
+        <v>2436</v>
+      </c>
+      <c r="J3">
+        <v>1785</v>
+      </c>
+      <c r="K3">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B2/B3</f>
+        <v>0.48654568210262827</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:K4" si="0">C2/C3</f>
+        <v>0.51700680272108845</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46078059871163318</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.52344086021505376</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.49614271938283511</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51003039513677817</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43195876288659796</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42446633825944169</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.35406162464985996</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54219409282700426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
